--- a/utilisateurs/utilisateur_modele - Copie.xlsx
+++ b/utilisateurs/utilisateur_modele - Copie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcvou\Dropbox\AA-Perso\Anaconda-Python38-spyder\memolab2\utilisateurs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE6FB3-F430-4397-BEA7-E47B500AB059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81CBD43-CDD8-420B-AF65-5650071FB133}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1764" yWindow="204" windowWidth="19872" windowHeight="6576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planEtude" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
-  <si>
-    <t>pos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>A</t>
   </si>
@@ -49,9 +46,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>numOrdre</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -146,6 +140,78 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>len(listLecon)</t>
+  </si>
+  <si>
+    <t>fonctions Labo session durée</t>
+  </si>
+  <si>
+    <t>NbPremJustes * 6 / nbQuestions</t>
+  </si>
+  <si>
+    <t>duréeDerSession</t>
+  </si>
+  <si>
+    <t>durée dernière session</t>
+  </si>
+  <si>
+    <t>duréeCumUsage + duree DerSession</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Fonction user - ajout lecon à l'étude</t>
+  </si>
+  <si>
+    <t>fonction user - ajout lecon à l'étude</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>nbSessions</t>
+  </si>
+  <si>
+    <t>nombre de sessions</t>
+  </si>
+  <si>
+    <t>fonction labo - nbSession + 1</t>
+  </si>
+  <si>
+    <t>fonctions Labo - session durée moyenne</t>
+  </si>
+  <si>
+    <t>fonctions Labo - dateDerSession</t>
+  </si>
+  <si>
+    <t>fonctions Labo - mode dernière Session</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>pour sélection leçon sur table</t>
+  </si>
+  <si>
+    <t>DerSessionTerminee</t>
+  </si>
+  <si>
+    <t>derSessionTerminee</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>True si toutes les questions ont été traitée</t>
   </si>
 </sst>
 </file>
@@ -175,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,16 +264,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,53 +568,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -546,8 +638,11 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -557,8 +652,11 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -568,8 +666,11 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -579,8 +680,11 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -590,8 +694,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -601,8 +708,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -612,8 +722,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -623,8 +736,11 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -634,8 +750,11 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -645,8 +764,11 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -656,8 +778,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -667,8 +792,11 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -678,8 +806,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -689,8 +820,11 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -700,8 +834,11 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -711,8 +848,11 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -722,8 +862,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -733,8 +876,11 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -744,6 +890,9 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -752,10 +901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC6F7B9-0A19-4530-966C-767E1D8F7A56}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,167 +914,249 @@
     <col min="3" max="3" width="7.5546875" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
